--- a/python-in-excel-bollinger-bands-demo.xlsx
+++ b/python-in-excel-bollinger-bands-demo.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29024"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4121D5-E67B-42AC-8D92-7DA9F32C8F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,11 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,25 +97,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -171,6 +198,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -205,9 +233,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,815 +409,820 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>44927</v>
       </c>
       <c r="B2">
         <v>101.2450712295169</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>44928</v>
       </c>
       <c r="B3">
         <v>101.5376747777601</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>44929</v>
       </c>
       <c r="B4">
         <v>103.0092075849111</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>44930</v>
       </c>
       <c r="B5">
-        <v>105.7937523695231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+        <v>105.79375236952311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>44931</v>
       </c>
       <c r="B6">
         <v>105.9425223074381</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>44932</v>
       </c>
       <c r="B7">
         <v>106.0913168720144</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>44933</v>
       </c>
       <c r="B8">
         <v>108.9601360952755</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>44934</v>
       </c>
       <c r="B9">
         <v>110.6112881890048</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
         <v>44935</v>
       </c>
       <c r="B10">
-        <v>110.4070766101024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+        <v>110.40707661010239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>44936</v>
       </c>
       <c r="B11">
-        <v>111.7209166754813</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+        <v>111.72091667548131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
         <v>44937</v>
       </c>
       <c r="B12">
         <v>111.5257901362627</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
         <v>44938</v>
       </c>
       <c r="B13">
         <v>111.3271955059073</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>44939</v>
       </c>
       <c r="B14">
-        <v>112.1901389132563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
+        <v>112.19013891325631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
         <v>44940</v>
       </c>
       <c r="B15">
         <v>109.8202185462696</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="3">
         <v>44941</v>
       </c>
       <c r="B16">
         <v>107.7328417975001</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>44942</v>
       </c>
       <c r="B17">
         <v>107.3894105036386</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="3">
         <v>44943</v>
       </c>
       <c r="B18">
-        <v>106.370163823137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+        <v>106.37016382313701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
         <v>44944</v>
       </c>
       <c r="B19">
         <v>107.3415348220299</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="3">
         <v>44945</v>
       </c>
       <c r="B20">
         <v>106.4794987087481</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="3">
         <v>44946</v>
       </c>
       <c r="B21">
         <v>104.8610431567451</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="3">
         <v>44947</v>
       </c>
       <c r="B22">
-        <v>107.5595163101275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
+        <v>107.55951631012751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="3">
         <v>44948</v>
       </c>
       <c r="B23">
         <v>107.7208518593977</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="3">
         <v>44949</v>
       </c>
       <c r="B24">
         <v>108.3221441664296</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="3">
         <v>44950</v>
       </c>
       <c r="B25">
         <v>106.6850218871094</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
         <v>44951</v>
       </c>
       <c r="B26">
         <v>106.3684478003216</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="3">
         <v>44952</v>
       </c>
       <c r="B27">
         <v>107.0348316848864</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
         <v>44953</v>
       </c>
       <c r="B28">
-        <v>105.8083413187529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2">
+        <v>105.80834131875289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
         <v>44954</v>
       </c>
       <c r="B29">
         <v>106.8718883462714</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
         <v>44955</v>
       </c>
       <c r="B30">
         <v>106.4709303113932</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
         <v>44956</v>
       </c>
       <c r="B31">
         <v>106.5333896867033</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="3">
         <v>44957</v>
       </c>
       <c r="B32">
-        <v>106.1308297683592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2">
+        <v>106.13082976835921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
         <v>44958</v>
       </c>
       <c r="B33">
         <v>109.4092470451226</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
         <v>44959</v>
       </c>
       <c r="B34">
         <v>109.8890012080157</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
         <v>44960</v>
       </c>
       <c r="B35">
         <v>108.8024348145819</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
         <v>44961</v>
       </c>
       <c r="B36">
         <v>110.5362521827367</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
         <v>44962</v>
       </c>
       <c r="B37">
-        <v>109.2049867077801</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2">
+        <v>109.20498670778009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
         <v>44963</v>
       </c>
       <c r="B38">
-        <v>110.0182821002873</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2">
+        <v>110.01828210028729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
         <v>44964</v>
       </c>
       <c r="B39">
         <v>107.5787769144676</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
         <v>44965</v>
       </c>
       <c r="B40">
-        <v>106.08649784112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2">
+        <v>106.08649784112001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
         <v>44966</v>
       </c>
       <c r="B41">
         <v>106.8817896949236</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
         <v>44967</v>
       </c>
       <c r="B42">
-        <v>108.4894895649168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2">
+        <v>108.48948956491679</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
         <v>44968</v>
       </c>
       <c r="B43">
         <v>109.2465419867017</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
         <v>44969</v>
       </c>
       <c r="B44">
         <v>109.5730695631193</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="3">
         <v>44970</v>
       </c>
       <c r="B45">
         <v>109.6214140197354</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="3">
         <v>44971</v>
       </c>
       <c r="B46">
         <v>107.9036310341843</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="3">
         <v>44972</v>
       </c>
       <c r="B47">
         <v>107.3238647215922</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="3">
         <v>44973</v>
       </c>
       <c r="B48">
         <v>107.1329065651525</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="3">
         <v>44974</v>
       </c>
       <c r="B49">
-        <v>109.2185899044809</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2">
+        <v>109.21858990448089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="3">
         <v>44975</v>
       </c>
       <c r="B50">
         <v>110.2340173388336</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="3">
         <v>44976</v>
       </c>
       <c r="B51">
-        <v>108.0894571057895</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2">
+        <v>108.08945710578951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="3">
         <v>44977</v>
       </c>
       <c r="B52">
-        <v>109.0755830598817</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2">
+        <v>109.07558305988169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="3">
         <v>44978</v>
       </c>
       <c r="B53">
         <v>108.9979596392572</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="3">
         <v>44979</v>
       </c>
       <c r="B54">
-        <v>108.4825766387983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2">
+        <v>108.48257663879831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="3">
         <v>44980</v>
       </c>
       <c r="B55">
         <v>109.9000910720596</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="3">
         <v>44981</v>
       </c>
       <c r="B56">
-        <v>111.9465903558035</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2">
+        <v>111.94659035580349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="3">
         <v>44982</v>
       </c>
       <c r="B57">
         <v>113.8435105344778</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="3">
         <v>44983</v>
       </c>
       <c r="B58">
         <v>113.0846842496438</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="3">
         <v>44984</v>
       </c>
       <c r="B59">
         <v>113.120865685867</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="3">
         <v>44985</v>
       </c>
       <c r="B60">
-        <v>114.1177608329724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2">
+        <v>114.11776083297239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="3">
         <v>44986</v>
       </c>
       <c r="B61">
         <v>116.0810785236559</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="3">
         <v>44987</v>
       </c>
       <c r="B62">
         <v>115.862317166888</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="3">
         <v>44988</v>
       </c>
       <c r="B63">
         <v>116.0838287018922</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="3">
         <v>44989</v>
       </c>
       <c r="B64">
         <v>114.9243262408832</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="3">
         <v>44990</v>
       </c>
       <c r="B65">
-        <v>113.6300163047622</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2">
+        <v>113.63001630476219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="3">
         <v>44991</v>
       </c>
       <c r="B66">
         <v>115.3488050383535</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="3">
         <v>44992</v>
       </c>
       <c r="B67">
         <v>117.8831650812097</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="3">
         <v>44993</v>
       </c>
       <c r="B68">
         <v>118.2751498988392</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="3">
         <v>44994</v>
       </c>
       <c r="B69">
         <v>120.2804492456773</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="3">
         <v>44995</v>
       </c>
       <c r="B70">
-        <v>121.3229032832487</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2">
+        <v>121.32290328324871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="3">
         <v>44996</v>
       </c>
       <c r="B71">
-        <v>120.855223651341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2">
+        <v>120.85522365134101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="3">
         <v>44997</v>
       </c>
       <c r="B72">
-        <v>121.8973170596037</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+        <v>121.89731705960369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="3">
         <v>44998</v>
       </c>
       <c r="B73">
-        <v>124.7043719093026</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2">
+        <v>124.70437190930259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="3">
         <v>44999</v>
       </c>
       <c r="B74">
-        <v>125.1506328506377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2">
+        <v>125.15063285063771</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="3">
         <v>45000</v>
       </c>
       <c r="B75">
         <v>127.9975983343587</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="3">
         <v>45001</v>
       </c>
       <c r="B76">
         <v>124.5679806782241</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="3">
         <v>45002</v>
       </c>
       <c r="B77">
-        <v>126.3008344347869</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2">
+        <v>126.30083443478691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="3">
         <v>45003</v>
       </c>
       <c r="B78">
         <v>126.9314050371442</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="3">
         <v>45004</v>
       </c>
       <c r="B79">
         <v>126.9828940114454</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="3">
         <v>45005</v>
       </c>
       <c r="B80">
-        <v>127.6205351762486</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2">
+        <v>127.62053517624859</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="3">
         <v>45006</v>
       </c>
       <c r="B81">
         <v>125.1391818043473</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="3">
         <v>45007</v>
       </c>
       <c r="B82">
         <v>125.309673972591</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="3">
         <v>45008</v>
       </c>
       <c r="B83">
-        <v>126.3453428298586</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2">
+        <v>126.34534282985859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="3">
         <v>45009</v>
       </c>
       <c r="B84">
-        <v>129.0621838969709</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2">
+        <v>129.06218389697091</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="3">
         <v>45010</v>
       </c>
       <c r="B85">
-        <v>128.7847785695604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2">
+        <v>128.78477856956039</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="3">
         <v>45011</v>
       </c>
       <c r="B86">
-        <v>128.0720381652206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2">
+        <v>128.07203816522059</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="3">
         <v>45012</v>
       </c>
       <c r="B87">
         <v>127.8194025998438</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="3">
         <v>45013</v>
       </c>
       <c r="B88">
-        <v>129.692505776397</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2">
+        <v>129.69250577639701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="3">
         <v>45014</v>
       </c>
       <c r="B89">
-        <v>130.6856324408865</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2">
+        <v>130.68563244088651</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="3">
         <v>45015</v>
       </c>
       <c r="B90">
         <v>130.3909921352359</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="3">
         <v>45016</v>
       </c>
       <c r="B91">
         <v>131.660893284906</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="3">
         <v>45017</v>
       </c>
       <c r="B92">
         <v>132.306509608928</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="3">
         <v>45018</v>
       </c>
       <c r="B93">
-        <v>134.2594770947273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
+        <v>134.25947709472729</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="3">
         <v>45019</v>
       </c>
       <c r="B94">
-        <v>133.7063974539113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
+        <v>133.70639745391131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="3">
         <v>45020</v>
       </c>
       <c r="B95">
-        <v>133.7149042340147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
+        <v>133.71490423401471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="3">
         <v>45021</v>
       </c>
       <c r="B96">
-        <v>133.6267420043164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
+        <v>133.62674200431641</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="3">
         <v>45022</v>
       </c>
       <c r="B97">
         <v>131.9314695821183</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="3">
         <v>45023</v>
       </c>
       <c r="B98">
         <v>132.8756499977151</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="3">
         <v>45024</v>
       </c>
       <c r="B99">
-        <v>133.7672329059849</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2">
+        <v>133.76723290598491</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="3">
         <v>45025</v>
       </c>
       <c r="B100">
-        <v>134.2749030909486</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2">
+        <v>134.27490309094861</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="3">
         <v>45026</v>
       </c>
       <c r="B101">
